--- a/non_linear_datasets.xlsx
+++ b/non_linear_datasets.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoplebani/Desktop/Corso_R/my_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED970EAF-E323-2E40-89B2-6A533AD9B956}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9440" yWindow="0" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="9440" yWindow="500" windowWidth="25360" windowHeight="18780" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="poly_data1" sheetId="2" r:id="rId1"/>
     <sheet name="poly_data2" sheetId="3" r:id="rId2"/>
     <sheet name="poly_data3" sheetId="4" r:id="rId3"/>
     <sheet name="poly_data4" sheetId="5" r:id="rId4"/>
-    <sheet name="diel_activity_data" sheetId="1" r:id="rId5"/>
+    <sheet name="poly_data5" sheetId="6" r:id="rId5"/>
+    <sheet name="diel_activity_data" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,24 +30,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
-  <si>
-    <t>time_hr</t>
-  </si>
-  <si>
-    <t>activity_index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>predictor</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>tree.height</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>activity.index</t>
+  </si>
+  <si>
+    <t>time.hr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -86,6 +105,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -410,782 +437,782 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>83.6773094628834</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="B3">
         <v>142.932166211104</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>118.21856937949801</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="B5">
         <v>273.51404010688998</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>251.47538859076801</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="B7">
         <v>242.72658079409899</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>364.371452621424</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="B9">
         <v>440.66623525646099</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>503.78906758267499</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="B11">
         <v>538.48058064218196</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>715.58905842254205</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="B13">
         <v>753.24216182057205</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>803.93797097290997</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="B15">
         <v>833.01500564112496</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>1116.24654590716</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="B17">
         <v>1181.5033195492399</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>1314.1904868450499</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="B19">
         <v>1500.94181053426</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>1641.0610597549</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>144.69506606087501</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="B22">
         <v>179.69886858041099</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>199.106815036553</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="B24">
         <v>197.47824916825999</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>135.53241520683099</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="B26">
         <v>314.74128739473599</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>337.19356302354998</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="B28">
         <v>395.96022466473403</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>401.46238080503599</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="B30">
         <v>529.84249724456902</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>660.89707800998497</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="B32">
         <v>801.68397757645198</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>829.86061363285</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="B34">
         <v>963.13358057796802</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>1057.3097479708499</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="B36">
         <v>1114.8970221585701</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>1294.2502718350199</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="B38">
         <v>1434.03550231448</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>1597.03433016444</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>170.00126859919399</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="B41">
         <v>171.908787422877</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <v>151.77382018732101</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="B43">
         <v>181.08191599317499</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B44">
         <v>269.84816877023701</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="B45">
         <v>311.58315993368302</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B46">
         <v>305.56221527252399</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="B47">
         <v>368.37524215189399</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B48">
         <v>493.22909810684098</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="B49">
         <v>592.17664622577104</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>634.38268939248906</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="B51">
         <v>777.805386322711</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>854.90529401835295</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="B53">
         <v>913.14868033746097</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>1077.0559845712201</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="B55">
         <v>1127.2818451959599</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>1386.65118508505</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="B57">
         <v>1552.7699949252899</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B58">
         <v>1581.6389261766701</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B59">
         <v>62.793268684173498</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="B60">
         <v>162.23598137212099</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B61">
         <v>153.24726980595901</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="B62">
         <v>313.83088802523901</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B63">
         <v>233.03799986334201</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="B64">
         <v>318.236968122539</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B65">
         <v>341.40010793903298</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="B66">
         <v>366.58633955587999</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B67">
         <v>484.43961497571701</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="B68">
         <v>463.50206855544798</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B69">
         <v>713.277743078144</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="B70">
         <v>741.41266691059502</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B71">
         <v>943.63058351810798</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="B72">
         <v>967.52547644498304</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B73">
         <v>1024.50267845391</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="B74">
         <v>1214.2863176744499</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B75">
         <v>1268.29511841779</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="B76">
         <v>1391.06832998804</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B77">
         <v>1614.57231177587</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B78">
         <v>92.835406339078304</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="B79">
         <v>133.80526758158101</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B80">
         <v>163.717066207583</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="B81">
         <v>164.27395269059599</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B82">
         <v>206.56656335907499</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="B83">
         <v>276.991069243808</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B84">
         <v>398.90434982865997</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="B85">
         <v>327.571659978512</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B86">
         <v>504.69730938142101</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="B87">
         <v>570.39751856067596</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B88">
         <v>693.15499186381805</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="B89">
         <v>718.54080381828499</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B90">
         <v>853.50094049581401</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="B91">
         <v>957.10493953861203</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B92">
         <v>1032.87399845042</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="B93">
         <v>1244.14339029916</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B94">
         <v>1373.0201307847501</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="B95">
         <v>1488.7606824757499</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B96">
         <v>1679.3416727270401</v>
@@ -1202,28 +1229,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1231,7 +1258,7 @@
         <v>327.92432127826498</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>11</v>
       </c>
@@ -1239,7 +1266,7 @@
         <v>294.17038957709798</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12</v>
       </c>
@@ -1247,7 +1274,7 @@
         <v>383.33672928815599</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>13</v>
       </c>
@@ -1255,7 +1282,7 @@
         <v>400.76936925508198</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>14</v>
       </c>
@@ -1263,7 +1290,7 @@
         <v>484.32996817803399</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1271,7 +1298,7 @@
         <v>518.98166613879403</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>16</v>
       </c>
@@ -1279,7 +1306,7 @@
         <v>590.10579365721196</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>17</v>
       </c>
@@ -1287,7 +1314,7 @@
         <v>576.45391757237803</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>18</v>
       </c>
@@ -1295,7 +1322,7 @@
         <v>659.90143862020398</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>19</v>
       </c>
@@ -1303,7 +1330,7 @@
         <v>645.27076780405901</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20</v>
       </c>
@@ -1311,7 +1338,7 @@
         <v>788.36436346863195</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>21</v>
       </c>
@@ -1319,7 +1346,7 @@
         <v>753.83537380086</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>22</v>
       </c>
@@ -1327,7 +1354,7 @@
         <v>777.50871147476096</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>23</v>
       </c>
@@ -1335,7 +1362,7 @@
         <v>761.20926789131704</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>24</v>
       </c>
@@ -1343,7 +1370,7 @@
         <v>832.10880402597104</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>25</v>
       </c>
@@ -1351,7 +1378,7 @@
         <v>718.213177302551</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>26</v>
       </c>
@@ -1359,7 +1386,7 @@
         <v>724.91776348197197</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>27</v>
       </c>
@@ -1367,7 +1394,7 @@
         <v>813.61411192708294</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -1375,7 +1402,7 @@
         <v>699.46518233448205</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>29</v>
       </c>
@@ -1383,7 +1410,7 @@
         <v>707.63096281990204</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1391,7 +1418,7 @@
         <v>680.35960352790096</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>31</v>
       </c>
@@ -1399,7 +1426,7 @@
         <v>662.00035657257501</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>32</v>
       </c>
@@ -1407,7 +1434,7 @@
         <v>638.04433485117204</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>33</v>
       </c>
@@ -1415,7 +1442,7 @@
         <v>646.70941656339096</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>34</v>
       </c>
@@ -1423,7 +1450,7 @@
         <v>579.13347588652005</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>35</v>
       </c>
@@ -1431,7 +1458,7 @@
         <v>524.70212689428695</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>36</v>
       </c>
@@ -1439,7 +1466,7 @@
         <v>575.15194125852099</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>37</v>
       </c>
@@ -1447,7 +1474,7 @@
         <v>451.27102957265703</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>38</v>
       </c>
@@ -1455,7 +1482,7 @@
         <v>403.02217349783098</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>39</v>
       </c>
@@ -1463,7 +1490,7 @@
         <v>352.99046293932201</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>40</v>
       </c>
@@ -1471,7 +1498,7 @@
         <v>335.63331535256998</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10</v>
       </c>
@@ -1479,7 +1506,7 @@
         <v>296.32177979368402</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>11</v>
       </c>
@@ -1487,7 +1514,7 @@
         <v>356.118291426648</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>12</v>
       </c>
@@ -1495,7 +1522,7 @@
         <v>377.91697606221697</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>13</v>
       </c>
@@ -1503,7 +1530,7 @@
         <v>445.78648638768402</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>14</v>
       </c>
@@ -1511,7 +1538,7 @@
         <v>511.00802202172599</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>15</v>
       </c>
@@ -1519,7 +1546,7 @@
         <v>520.555275687017</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>16</v>
       </c>
@@ -1527,7 +1554,7 @@
         <v>614.57480963162902</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>17</v>
       </c>
@@ -1535,7 +1562,7 @@
         <v>546.08029591066099</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>18</v>
       </c>
@@ -1543,7 +1570,7 @@
         <v>667.327893039488</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>19</v>
       </c>
@@ -1551,7 +1578,7 @@
         <v>601.177508823121</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>20</v>
       </c>
@@ -1559,7 +1586,7 @@
         <v>684.95119365816902</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>21</v>
       </c>
@@ -1567,7 +1594,7 @@
         <v>691.58600477774996</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>22</v>
       </c>
@@ -1575,7 +1602,7 @@
         <v>699.39526096595</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>23</v>
       </c>
@@ -1583,7 +1610,7 @@
         <v>739.15516110762997</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>24</v>
       </c>
@@ -1591,7 +1618,7 @@
         <v>652.28202871599899</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>25</v>
       </c>
@@ -1599,7 +1626,7 @@
         <v>808.82916560092804</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>26</v>
       </c>
@@ -1607,7 +1634,7 @@
         <v>664.75137818940004</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>27</v>
       </c>
@@ -1615,7 +1642,7 @@
         <v>718.82347992638097</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>28</v>
       </c>
@@ -1623,7 +1650,7 @@
         <v>676.20399474785802</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>29</v>
       </c>
@@ -1631,7 +1658,7 @@
         <v>680.45904994032799</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>30</v>
       </c>
@@ -1639,7 +1666,7 @@
         <v>804.35832728141702</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>31</v>
       </c>
@@ -1647,7 +1674,7 @@
         <v>678.86978098466295</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>32</v>
       </c>
@@ -1655,7 +1682,7 @@
         <v>587.68497347828395</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>33</v>
       </c>
@@ -1663,7 +1690,7 @@
         <v>539.96972327907099</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>34</v>
       </c>
@@ -1671,7 +1698,7 @@
         <v>610.50935506363305</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>35</v>
       </c>
@@ -1679,7 +1706,7 @@
         <v>549.07200836426796</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>36</v>
       </c>
@@ -1687,7 +1714,7 @@
         <v>492.09658127280801</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>37</v>
       </c>
@@ -1695,7 +1722,7 @@
         <v>415.53189262731502</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>38</v>
       </c>
@@ -1703,7 +1730,7 @@
         <v>337.626984492926</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>39</v>
       </c>
@@ -1711,7 +1738,7 @@
         <v>304.24038516921598</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>40</v>
       </c>
@@ -1719,7 +1746,7 @@
         <v>350.00144018569603</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>10</v>
       </c>
@@ -1727,7 +1754,7 @@
         <v>268.93666526015897</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>11</v>
       </c>
@@ -1735,7 +1762,7 @@
         <v>288.778657630775</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>12</v>
       </c>
@@ -1743,7 +1770,7 @@
         <v>505.46453112117899</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>13</v>
       </c>
@@ -1751,7 +1778,7 @@
         <v>483.25501886862202</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>14</v>
       </c>
@@ -1759,7 +1786,7 @@
         <v>496.067644954348</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>15</v>
       </c>
@@ -1767,7 +1794,7 @@
         <v>602.92415243545099</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>16</v>
       </c>
@@ -1775,7 +1802,7 @@
         <v>632.32113256874698</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>17</v>
       </c>
@@ -1783,7 +1810,7 @@
         <v>591.03784758844301</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>18</v>
       </c>
@@ -1791,7 +1818,7 @@
         <v>762.30512322702305</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>19</v>
       </c>
@@ -1799,7 +1826,7 @@
         <v>665.24864849294897</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>20</v>
       </c>
@@ -1807,7 +1834,7 @@
         <v>628.77526748935998</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>21</v>
       </c>
@@ -1815,7 +1842,7 @@
         <v>710.78001990228904</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>22</v>
       </c>
@@ -1823,7 +1850,7 @@
         <v>742.37691696161698</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>23</v>
       </c>
@@ -1831,7 +1858,7 @@
         <v>857.39891995296796</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>24</v>
       </c>
@@ -1839,7 +1866,7 @@
         <v>753.29011839468603</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>25</v>
       </c>
@@ -1847,7 +1874,7 @@
         <v>772.84994027117102</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>26</v>
       </c>
@@ -1855,7 +1882,7 @@
         <v>744.14235323217304</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>27</v>
       </c>
@@ -1863,7 +1890,7 @@
         <v>725.29995788167298</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>28</v>
       </c>
@@ -1871,7 +1898,7 @@
         <v>730.26369858443604</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>29</v>
       </c>
@@ -1879,7 +1906,7 @@
         <v>757.38198028150805</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>30</v>
       </c>
@@ -1887,7 +1914,7 @@
         <v>803.762250432614</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>31</v>
       </c>
@@ -1895,7 +1922,7 @@
         <v>729.36962193818795</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>32</v>
       </c>
@@ -1903,7 +1930,7 @@
         <v>712.39541991933504</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>33</v>
       </c>
@@ -1911,7 +1938,7 @@
         <v>560.43382892209797</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>34</v>
       </c>
@@ -1919,7 +1946,7 @@
         <v>637.19477850266901</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>35</v>
       </c>
@@ -1927,7 +1954,7 @@
         <v>560.99624018303302</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>36</v>
       </c>
@@ -1935,7 +1962,7 @@
         <v>434.63749854538798</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>37</v>
       </c>
@@ -1943,7 +1970,7 @@
         <v>488.05113713240701</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>38</v>
       </c>
@@ -1951,7 +1978,7 @@
         <v>404.06226976419902</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>39</v>
       </c>
@@ -1959,7 +1986,7 @@
         <v>431.22936559849001</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>40</v>
       </c>
@@ -1967,7 +1994,7 @@
         <v>261.69590001976701</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10</v>
       </c>
@@ -1975,7 +2002,7 @@
         <v>278.48941230357298</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>11</v>
       </c>
@@ -1983,7 +2010,7 @@
         <v>311.69452513112799</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>12</v>
       </c>
@@ -1991,7 +2018,7 @@
         <v>403.14480192817302</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>13</v>
       </c>
@@ -1999,7 +2026,7 @@
         <v>482.10058897431702</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>14</v>
       </c>
@@ -2007,7 +2034,7 @@
         <v>471.41259134401997</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>15</v>
       </c>
@@ -2015,7 +2042,7 @@
         <v>591.51865839908396</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>16</v>
       </c>
@@ -2023,7 +2050,7 @@
         <v>527.59586068477699</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>17</v>
       </c>
@@ -2031,7 +2058,7 @@
         <v>569.60077935961294</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>18</v>
       </c>
@@ -2039,7 +2066,7 @@
         <v>724.05788534221404</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>19</v>
       </c>
@@ -2047,7 +2074,7 @@
         <v>627.20762673476804</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>20</v>
       </c>
@@ -2055,7 +2082,7 @@
         <v>720.59873561587597</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>21</v>
       </c>
@@ -2063,7 +2090,7 @@
         <v>698.94619744455395</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>22</v>
       </c>
@@ -2071,7 +2098,7 @@
         <v>752.47009198254705</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>23</v>
       </c>
@@ -2079,7 +2106,7 @@
         <v>826.44366431020205</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>24</v>
       </c>
@@ -2087,7 +2114,7 @@
         <v>827.32942167209899</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>25</v>
       </c>
@@ -2095,7 +2122,7 @@
         <v>733.45460996586201</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>26</v>
       </c>
@@ -2103,7 +2130,7 @@
         <v>633.73822323537695</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>27</v>
       </c>
@@ -2111,7 +2138,7 @@
         <v>866.88307949170803</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>28</v>
       </c>
@@ -2119,7 +2146,7 @@
         <v>765.35330833827504</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>29</v>
       </c>
@@ -2127,7 +2154,7 @@
         <v>745.06636679818496</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>30</v>
       </c>
@@ -2135,7 +2162,7 @@
         <v>699.33002384270503</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>31</v>
       </c>
@@ -2143,7 +2170,7 @@
         <v>703.50542114764596</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>32</v>
       </c>
@@ -2151,7 +2178,7 @@
         <v>643.78120841151701</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>33</v>
       </c>
@@ -2159,7 +2186,7 @@
         <v>643.03473216272596</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>34</v>
       </c>
@@ -2167,7 +2194,7 @@
         <v>567.98766280111795</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>35</v>
       </c>
@@ -2175,7 +2202,7 @@
         <v>481.48960612262698</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>36</v>
       </c>
@@ -2183,7 +2210,7 @@
         <v>557.39191337274406</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>37</v>
       </c>
@@ -2191,7 +2218,7 @@
         <v>537.98725127497698</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>38</v>
       </c>
@@ -2199,7 +2226,7 @@
         <v>396.56297153871901</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>39</v>
       </c>
@@ -2207,7 +2234,7 @@
         <v>295.335512219615</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>40</v>
       </c>
@@ -2215,7 +2242,7 @@
         <v>332.11206528389101</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>10</v>
       </c>
@@ -2223,7 +2250,7 @@
         <v>297.764543155301</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>11</v>
       </c>
@@ -2231,7 +2258,7 @@
         <v>271.33907965875801</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>12</v>
       </c>
@@ -2239,7 +2266,7 @@
         <v>412.10659298401401</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>13</v>
       </c>
@@ -2247,7 +2274,7 @@
         <v>430.48498330359303</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>14</v>
       </c>
@@ -2255,7 +2282,7 @@
         <v>490.95157100697998</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>15</v>
       </c>
@@ -2263,7 +2290,7 @@
         <v>492.17138186820699</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>16</v>
       </c>
@@ -2271,7 +2298,7 @@
         <v>678.15709539587294</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>17</v>
       </c>
@@ -2279,7 +2306,7 @@
         <v>605.44339818043898</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>18</v>
       </c>
@@ -2287,7 +2314,7 @@
         <v>571.72432938734596</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>19</v>
       </c>
@@ -2295,7 +2322,7 @@
         <v>687.859671936974</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>20</v>
       </c>
@@ -2303,7 +2330,7 @@
         <v>713.15878232027399</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>21</v>
       </c>
@@ -2311,7 +2338,7 @@
         <v>668.708664979535</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>22</v>
       </c>
@@ -2319,7 +2346,7 @@
         <v>587.55396641602294</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>23</v>
       </c>
@@ -2327,7 +2354,7 @@
         <v>709.97591487174395</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>24</v>
       </c>
@@ -2335,7 +2362,7 @@
         <v>776.52538179602402</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>25</v>
       </c>
@@ -2343,7 +2370,7 @@
         <v>747.01383619786998</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>26</v>
       </c>
@@ -2351,7 +2378,7 @@
         <v>743.09106279973798</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>27</v>
       </c>
@@ -2359,7 +2386,7 @@
         <v>770.04103643100598</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>28</v>
       </c>
@@ -2367,7 +2394,7 @@
         <v>672.67706807102604</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>29</v>
       </c>
@@ -2375,7 +2402,7 @@
         <v>772.83885221371202</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>30</v>
       </c>
@@ -2383,7 +2410,7 @@
         <v>699.73279858609203</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>31</v>
       </c>
@@ -2391,7 +2418,7 @@
         <v>713.36553336990403</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>32</v>
       </c>
@@ -2399,7 +2426,7 @@
         <v>703.70538673687304</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>33</v>
       </c>
@@ -2407,7 +2434,7 @@
         <v>633.17402074576501</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>34</v>
       </c>
@@ -2415,7 +2442,7 @@
         <v>544.06461935669904</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>35</v>
       </c>
@@ -2423,7 +2450,7 @@
         <v>608.14822779836697</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>36</v>
       </c>
@@ -2431,7 +2458,7 @@
         <v>407.991752760726</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>37</v>
       </c>
@@ -2439,7 +2466,7 @@
         <v>434.76046299991401</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>38</v>
       </c>
@@ -2447,7 +2474,7 @@
         <v>399.21646454215102</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>39</v>
       </c>
@@ -2455,7 +2482,7 @@
         <v>349.69394816174997</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>40</v>
       </c>
@@ -2474,27 +2501,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>84</v>
       </c>
@@ -2502,7 +2529,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>104</v>
       </c>
@@ -2510,7 +2537,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -2518,7 +2545,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>123</v>
       </c>
@@ -2526,7 +2553,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>123</v>
       </c>
@@ -2534,7 +2561,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>148</v>
       </c>
@@ -2542,7 +2569,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>141</v>
       </c>
@@ -2550,7 +2577,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>155</v>
       </c>
@@ -2558,7 +2585,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>154</v>
       </c>
@@ -2566,7 +2593,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>172</v>
       </c>
@@ -2574,7 +2601,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>175</v>
       </c>
@@ -2582,7 +2609,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>166</v>
       </c>
@@ -2590,7 +2617,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>192</v>
       </c>
@@ -2598,7 +2625,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>186</v>
       </c>
@@ -2606,7 +2633,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>200</v>
       </c>
@@ -2614,7 +2641,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>195</v>
       </c>
@@ -2622,7 +2649,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>208</v>
       </c>
@@ -2630,7 +2657,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>220</v>
       </c>
@@ -2638,7 +2665,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>218</v>
       </c>
@@ -2646,7 +2673,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>240</v>
       </c>
@@ -2654,7 +2681,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>240</v>
       </c>
@@ -2662,7 +2689,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>258</v>
       </c>
@@ -2670,7 +2697,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>252</v>
       </c>
@@ -2678,7 +2705,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>262</v>
       </c>
@@ -2686,7 +2713,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>260</v>
       </c>
@@ -2694,7 +2721,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>274</v>
       </c>
@@ -2702,7 +2729,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>270</v>
       </c>
@@ -2710,7 +2737,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>286</v>
       </c>
@@ -2718,7 +2745,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>310</v>
       </c>
@@ -2726,7 +2753,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>313</v>
       </c>
@@ -2734,7 +2761,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>330</v>
       </c>
@@ -2742,7 +2769,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>355</v>
       </c>
@@ -2750,7 +2777,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>357</v>
       </c>
@@ -2758,7 +2785,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>366</v>
       </c>
@@ -2766,7 +2793,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>369</v>
       </c>
@@ -2774,7 +2801,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>386</v>
       </c>
@@ -2782,7 +2809,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>398</v>
       </c>
@@ -2790,7 +2817,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>398</v>
       </c>
@@ -2798,7 +2825,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>408</v>
       </c>
@@ -2806,7 +2833,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>417</v>
       </c>
@@ -2814,7 +2841,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>423</v>
       </c>
@@ -2822,7 +2849,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>436</v>
       </c>
@@ -2830,7 +2857,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>452</v>
       </c>
@@ -2838,7 +2865,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>465</v>
       </c>
@@ -2846,7 +2873,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>479</v>
       </c>
@@ -2854,7 +2881,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>495</v>
       </c>
@@ -2862,7 +2889,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>501</v>
       </c>
@@ -2870,7 +2897,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>514</v>
       </c>
@@ -2878,7 +2905,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>525</v>
       </c>
@@ -2886,7 +2913,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>543</v>
       </c>
@@ -2894,7 +2921,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>550</v>
       </c>
@@ -2902,7 +2929,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>559</v>
       </c>
@@ -2910,7 +2937,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>569</v>
       </c>
@@ -2918,7 +2945,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>583</v>
       </c>
@@ -2926,7 +2953,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>590</v>
       </c>
@@ -2934,7 +2961,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>599</v>
       </c>
@@ -2942,7 +2969,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>278</v>
       </c>
@@ -2950,7 +2977,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>295</v>
       </c>
@@ -2958,7 +2985,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>293</v>
       </c>
@@ -2966,7 +2993,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>312</v>
       </c>
@@ -2974,7 +3001,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>330</v>
       </c>
@@ -2982,7 +3009,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>331</v>
       </c>
@@ -2990,7 +3017,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>348</v>
       </c>
@@ -2998,7 +3025,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>354</v>
       </c>
@@ -3006,7 +3033,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>378</v>
       </c>
@@ -3014,7 +3041,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>401</v>
       </c>
@@ -3022,7 +3049,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>395</v>
       </c>
@@ -3030,7 +3057,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>404</v>
       </c>
@@ -3038,7 +3065,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>421</v>
       </c>
@@ -3046,7 +3073,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>437</v>
       </c>
@@ -3054,7 +3081,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>465</v>
       </c>
@@ -3062,7 +3089,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>513</v>
       </c>
@@ -3070,7 +3097,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>506</v>
       </c>
@@ -3078,7 +3105,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>529</v>
       </c>
@@ -3086,7 +3113,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>550</v>
       </c>
@@ -3094,7 +3121,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>572</v>
       </c>
@@ -3102,7 +3129,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>582</v>
       </c>
@@ -3110,7 +3137,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>593</v>
       </c>
@@ -3118,7 +3145,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>600</v>
       </c>
@@ -3126,7 +3153,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>128</v>
       </c>
@@ -3134,7 +3161,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>126</v>
       </c>
@@ -3142,7 +3169,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>137</v>
       </c>
@@ -3150,7 +3177,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>231</v>
       </c>
@@ -3158,7 +3185,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>379</v>
       </c>
@@ -3166,7 +3193,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>491</v>
       </c>
@@ -3185,27 +3212,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>104</v>
       </c>
@@ -3213,7 +3240,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>134</v>
       </c>
@@ -3221,7 +3248,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>163</v>
       </c>
@@ -3229,7 +3256,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>235</v>
       </c>
@@ -3237,7 +3264,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>242</v>
       </c>
@@ -3245,7 +3272,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>301</v>
       </c>
@@ -3253,7 +3280,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>357</v>
       </c>
@@ -3261,7 +3288,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>377</v>
       </c>
@@ -3269,7 +3296,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>414</v>
       </c>
@@ -3277,7 +3304,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>470</v>
       </c>
@@ -3285,7 +3312,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>479</v>
       </c>
@@ -3293,7 +3320,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>551</v>
       </c>
@@ -3301,7 +3328,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>595</v>
       </c>
@@ -3320,28 +3347,137 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618EBCD-CF52-924B-BE81-C714673DA7B4}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2.91818</v>
+      </c>
+      <c r="B2">
+        <v>11.234500000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5.1818200000000001</v>
+      </c>
+      <c r="B3">
+        <v>15.919499999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6.6545500000000004</v>
+      </c>
+      <c r="B4">
+        <v>12.1715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8.07273</v>
+      </c>
+      <c r="B5">
+        <v>15.7079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9.9</v>
+      </c>
+      <c r="B6">
+        <v>11.264699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10.5</v>
+      </c>
+      <c r="B7">
+        <v>14.5593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>12.655099999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>13.4727</v>
+      </c>
+      <c r="B9">
+        <v>16.191500000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>15.5182</v>
+      </c>
+      <c r="B10">
+        <v>10.509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>16.9636</v>
+      </c>
+      <c r="B11">
+        <v>15.224299999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>17.890899999999998</v>
+      </c>
+      <c r="B12">
+        <v>13.199199999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B506"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3349,7 +3485,7 @@
         <v>86.867730946288304</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3357,7 +3493,7 @@
         <v>89.553172004877993</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3365,7 +3501,7 @@
         <v>80.454845813235593</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3373,7 +3509,7 @@
         <v>86.243647627080705</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3381,7 +3517,7 @@
         <v>71.619734780860298</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3389,7 +3525,7 @@
         <v>56.211659380716704</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3397,7 +3533,7 @@
         <v>52.388998345564403</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3405,7 +3541,7 @@
         <v>43.284614525646397</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3413,7 +3549,7 @@
         <v>32.823337255172703</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3421,7 +3557,7 @@
         <v>20.137765416812002</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3429,7 +3565,7 @@
         <v>22.8778369844221</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3437,7 +3573,7 @@
         <v>13.289431430277499</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3445,7 +3581,7 @@
         <v>6.8939130035697804</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3453,7 +3589,7 @@
         <v>0.31659845005235399</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3461,7 +3597,7 @@
         <v>21.039946407019301</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3469,7 +3605,7 @@
         <v>21.576301187097499</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3477,7 +3613,7 @@
         <v>30.0303420891785</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3485,7 +3621,7 @@
         <v>44.498247223688097</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3493,7 +3629,7 @@
         <v>54.250546446198001</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3501,7 +3637,7 @@
         <v>63.469462992895799</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3509,7 +3645,7 @@
         <v>74.733713714125699</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3517,7 +3653,7 @@
         <v>82.313858970159501</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3525,7 +3661,7 @@
         <v>85.101772769522498</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3533,7 +3669,7 @@
         <v>78.737631594885201</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3541,7 +3677,7 @@
         <v>93.098665115030101</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3549,7 +3685,7 @@
         <v>88.303981390203703</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3557,7 +3693,7 @@
         <v>83.757249529338694</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3565,7 +3701,7 @@
         <v>70.7768925775284</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3573,7 +3709,7 @@
         <v>67.414351732028294</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3581,7 +3717,7 @@
         <v>62.217514925648103</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3589,7 +3725,7 @@
         <v>56.552664569885998</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3597,7 +3733,7 @@
         <v>38.893218440211797</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3605,7 +3741,7 @@
         <v>31.7163905595465</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3613,7 +3749,7 @@
         <v>21.260077116813601</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3621,7 +3757,7 @@
         <v>8.3380766334514504</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3629,7 +3765,7 @@
         <v>9.2162559750620403</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3637,7 +3773,7 @@
         <v>8.0295933839271694</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3645,7 +3781,7 @@
         <v>11.144308564822399</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3653,7 +3789,7 @@
         <v>21.0125810661632</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3661,7 +3797,7 @@
         <v>25.753763542038602</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3669,7 +3805,7 @@
         <v>29.455999375699701</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3677,7 +3813,7 @@
         <v>38.6985698735784</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3685,7 +3821,7 @@
         <v>53.821841386710297</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3693,7 +3829,7 @@
         <v>63.468984063856198</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3701,7 +3837,7 @@
         <v>66.861212475018405</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3709,7 +3845,7 @@
         <v>75.000977111438701</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3717,7 +3853,7 @@
         <v>86.647011581335505</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3725,7 +3861,7 @@
         <v>92.575592635772693</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3733,7 +3869,7 @@
         <v>89.436414452222294</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3741,7 +3877,7 @@
         <v>92.938938985434206</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3749,7 +3885,7 @@
         <v>86.429194060327603</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3757,7 +3893,7 @@
         <v>74.933281308452194</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3765,7 +3901,7 @@
         <v>71.343147444011606</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3773,7 +3909,7 @@
         <v>54.294562692641399</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3781,7 +3917,7 @@
         <v>56.731804630054199</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3789,7 +3925,7 @@
         <v>49.123568201427801</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3797,7 +3933,7 @@
         <v>27.775995894182898</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3805,7 +3941,7 @@
         <v>16.173484145484402</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3813,7 +3949,7 @@
         <v>17.977221994917301</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3821,7 +3957,7 @@
         <v>10.5678666321219</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3829,7 +3965,7 @@
         <v>22.0109864259083</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3837,7 +3973,7 @@
         <v>11.2963470447818</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3845,7 +3981,7 @@
         <v>19.059112871899</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3853,7 +3989,7 @@
         <v>22.215461675358601</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3861,7 +3997,7 @@
         <v>26.730032430602598</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3869,7 +4005,7 @@
         <v>41.095884490627498</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3877,7 +4013,7 @@
         <v>41.504807591570298</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3885,7 +4021,7 @@
         <v>68.198906355136401</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3893,7 +4029,7 @@
         <v>71.236951036000605</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3901,7 +4037,7 @@
         <v>89.5361251215881</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3909,7 +4045,7 @@
         <v>87.295996067864294</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3917,7 +4053,7 @@
         <v>85.230835920970307</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3925,7 +4061,7 @@
         <v>93.049459211938</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3933,7 +4069,7 @@
         <v>83.810794208941601</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3941,7 +4077,7 @@
         <v>78.072136922586793</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3949,7 +4085,7 @@
         <v>79.312754308441995</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3957,7 +4093,7 @@
         <v>67.253081377729501</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3965,7 +4101,7 @@
         <v>59.760245526303201</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3973,7 +4109,7 @@
         <v>49.745822096360897</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3981,7 +4117,7 @@
         <v>36.088625467140403</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3989,7 +4125,7 @@
         <v>26.603303003552401</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3997,7 +4133,7 @@
         <v>20.5839822771825</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4005,7 +4141,7 @@
         <v>20.9251166417998</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4013,7 +4149,7 @@
         <v>3.57811494073318</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4021,7 +4157,7 @@
         <v>12.975410214148599</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4029,7 +4165,7 @@
         <v>13.2098630744064</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4037,7 +4173,7 @@
         <v>21.024674292014002</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4045,7 +4181,7 @@
         <v>20.6927446701653</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4053,7 +4189,7 @@
         <v>32.4647269190244</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4061,7 +4197,7 @@
         <v>41.674189956173002</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4069,7 +4205,7 @@
         <v>48.009564530613901</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4077,7 +4213,7 @@
         <v>67.095683047944604</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4085,7 +4221,7 @@
         <v>76.437916285108898</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4093,7 +4229,7 @@
         <v>82.308084214149204</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4101,7 +4237,7 @@
         <v>92.946152896473905</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4109,7 +4245,7 @@
         <v>91.619741284825096</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4117,7 +4253,7 @@
         <v>83.609621181559802</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4125,7 +4261,7 @@
         <v>85.561945266821994</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4133,7 +4269,7 @@
         <v>78.118084064365902</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4141,7 +4277,7 @@
         <v>75.349984079736402</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4149,7 +4285,7 @@
         <v>66.199247786883404</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0</v>
       </c>
@@ -4157,7 +4293,7 @@
         <v>90.210579365721202</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4165,7 +4301,7 @@
         <v>84.080347141005404</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2</v>
       </c>
@@ -4173,7 +4309,7 @@
         <v>85.423132737306204</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3</v>
       </c>
@@ -4181,7 +4317,7 @@
         <v>74.994320396797605</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4</v>
       </c>
@@ -4189,7 +4325,7 @@
         <v>78.808632268646704</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>5</v>
       </c>
@@ -4197,7 +4333,7 @@
         <v>63.897538681392803</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>6</v>
       </c>
@@ -4205,7 +4341,7 @@
         <v>54.502724230898103</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>7</v>
       </c>
@@ -4213,7 +4349,7 @@
         <v>41.513917789132002</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>8</v>
       </c>
@@ -4221,7 +4357,7 @@
         <v>38.3553108995023</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>9</v>
       </c>
@@ -4229,7 +4365,7 @@
         <v>18.486025082848901</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>10</v>
       </c>
@@ -4237,7 +4373,7 @@
         <v>13.0107074903651</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>11</v>
       </c>
@@ -4245,7 +4381,7 @@
         <v>18.5016264409287</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>12</v>
       </c>
@@ -4253,7 +4389,7 @@
         <v>6.74663413972696</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>13</v>
       </c>
@@ -4261,7 +4397,7 @@
         <v>10.353194167930001</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>14</v>
       </c>
@@ -4269,7 +4405,7 @@
         <v>13.451252169093801</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>15</v>
       </c>
@@ -4277,7 +4413,7 @@
         <v>20.2010048894312</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>16</v>
       </c>
@@ -4285,7 +4421,7 @@
         <v>28.715726889790499</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>17</v>
       </c>
@@ -4293,7 +4429,7 @@
         <v>42.2500078266008</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>18</v>
       </c>
@@ -4301,7 +4437,7 @@
         <v>49.257788059359498</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>19</v>
       </c>
@@ -4309,7 +4445,7 @@
         <v>57.9701690762369</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>20</v>
       </c>
@@ -4317,7 +4453,7 @@
         <v>76.8540209819366</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>21</v>
       </c>
@@ -4325,7 +4461,7 @@
         <v>77.330280423769807</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>22</v>
       </c>
@@ -4333,7 +4469,7 @@
         <v>83.831165202479696</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>23</v>
       </c>
@@ -4341,7 +4477,7 @@
         <v>88.183436368134295</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>24</v>
       </c>
@@ -4349,7 +4485,7 @@
         <v>93.562867910813495</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>25</v>
       </c>
@@ -4357,7 +4493,7 @@
         <v>88.2168030672171</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>26</v>
       </c>
@@ -4365,7 +4501,7 @@
         <v>84.348056205530099</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>27</v>
       </c>
@@ -4373,7 +4509,7 @@
         <v>74.722352103246493</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>28</v>
       </c>
@@ -4381,7 +4517,7 @@
         <v>68.183750646339803</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>29</v>
       </c>
@@ -4389,7 +4525,7 @@
         <v>60.428609326822198</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>30</v>
       </c>
@@ -4397,7 +4533,7 @@
         <v>46.814794380942402</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>31</v>
       </c>
@@ -4405,7 +4541,7 @@
         <v>42.064638040089697</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>32</v>
       </c>
@@ -4413,7 +4549,7 @@
         <v>22.1860620928157</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>33</v>
       </c>
@@ -4421,7 +4557,7 @@
         <v>23.061891623676999</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>34</v>
       </c>
@@ -4429,7 +4565,7 @@
         <v>7.5411252999065503</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>35</v>
       </c>
@@ -4437,7 +4573,7 @@
         <v>9.7863481573773896</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4445,7 +4581,7 @@
         <v>7.3596436302538804</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>37</v>
       </c>
@@ -4453,7 +4589,7 @@
         <v>8.1804016449733599</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>38</v>
       </c>
@@ -4461,7 +4597,7 @@
         <v>15.2279703170068</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>39</v>
       </c>
@@ -4469,7 +4605,7 @@
         <v>12.366087671350799</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>40</v>
       </c>
@@ -4477,7 +4613,7 @@
         <v>36.161533917060503</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>41</v>
       </c>
@@ -4485,7 +4621,7 @@
         <v>31.640516093200901</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>42</v>
       </c>
@@ -4493,7 +4629,7 @@
         <v>48.0193725023247</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>43</v>
       </c>
@@ -4501,7 +4637,7 @@
         <v>55.106067545273703</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>44</v>
       </c>
@@ -4509,7 +4645,7 @@
         <v>66.5508959417987</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>45</v>
       </c>
@@ -4517,7 +4653,7 @@
         <v>88.974285624391101</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>46</v>
       </c>
@@ -4525,7 +4661,7 @@
         <v>84.9110798691176</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>47</v>
       </c>
@@ -4533,7 +4669,7 @@
         <v>82.301425361024002</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>48</v>
       </c>
@@ -4541,7 +4677,7 @@
         <v>81.795117840880593</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>49</v>
       </c>
@@ -4549,7 +4685,7 @@
         <v>90.784335859526394</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>50</v>
       </c>
@@ -4557,7 +4693,7 @@
         <v>84.345865494918996</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>51</v>
       </c>
@@ -4565,7 +4701,7 @@
         <v>76.403071401986793</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>52</v>
       </c>
@@ -4573,7 +4709,7 @@
         <v>64.990738249621003</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>53</v>
       </c>
@@ -4581,7 +4717,7 @@
         <v>52.504076622337998</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>54</v>
       </c>
@@ -4589,7 +4725,7 @@
         <v>44.190724638470599</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>55</v>
       </c>
@@ -4597,7 +4733,7 @@
         <v>44.221712727468102</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>56</v>
       </c>
@@ -4605,7 +4741,7 @@
         <v>26.505769802531301</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>57</v>
       </c>
@@ -4613,7 +4749,7 @@
         <v>14.472023040144601</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>58</v>
       </c>
@@ -4621,7 +4757,7 @@
         <v>24.4750769698231</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>59</v>
       </c>
@@ -4629,7 +4765,7 @@
         <v>13.3686415383882</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>60</v>
       </c>
@@ -4637,7 +4773,7 @@
         <v>8.8096621188192703</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>61</v>
       </c>
@@ -4645,7 +4781,7 @@
         <v>16.784962301992699</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>62</v>
       </c>
@@ -4653,7 +4789,7 @@
         <v>20.042529316519801</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>63</v>
       </c>
@@ -4661,7 +4797,7 @@
         <v>18.9792356402995</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>64</v>
       </c>
@@ -4669,7 +4805,7 @@
         <v>41.476910797716997</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>65</v>
       </c>
@@ -4677,7 +4813,7 @@
         <v>38.876787842350701</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>66</v>
       </c>
@@ -4685,7 +4821,7 @@
         <v>43.407127484961499</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>67</v>
       </c>
@@ -4693,7 +4829,7 @@
         <v>60.149134037550901</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>68</v>
       </c>
@@ -4701,7 +4837,7 @@
         <v>71.508376041102807</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>69</v>
       </c>
@@ -4709,7 +4845,7 @@
         <v>90.212958765074106</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>70</v>
       </c>
@@ -4717,7 +4853,7 @@
         <v>85.447460262834497</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>71</v>
       </c>
@@ -4725,7 +4861,7 @@
         <v>91.065562102696504</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>72</v>
       </c>
@@ -4733,7 +4869,7 @@
         <v>89.610062767710005</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>73</v>
       </c>
@@ -4741,7 +4877,7 @@
         <v>86.811278155330101</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>74</v>
       </c>
@@ -4749,7 +4885,7 @@
         <v>84.166673782225899</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>75</v>
       </c>
@@ -4757,7 +4893,7 @@
         <v>81.7937211590055</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>76</v>
       </c>
@@ -4765,7 +4901,7 @@
         <v>79.845765787083096</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>77</v>
       </c>
@@ -4773,7 +4909,7 @@
         <v>64.8916809619639</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>78</v>
       </c>
@@ -4781,7 +4917,7 @@
         <v>55.413657467536098</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>79</v>
       </c>
@@ -4789,7 +4925,7 @@
         <v>32.879613090290498</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>80</v>
       </c>
@@ -4797,7 +4933,7 @@
         <v>34.3661245179118</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>81</v>
       </c>
@@ -4805,7 +4941,7 @@
         <v>22.359499371104899</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>82</v>
       </c>
@@ -4813,7 +4949,7 @@
         <v>7.6984315134725403</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>83</v>
       </c>
@@ -4821,7 +4957,7 @@
         <v>13.801062656122699</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>84</v>
       </c>
@@ -4829,7 +4965,7 @@
         <v>9.2119062524264006</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>85</v>
       </c>
@@ -4837,7 +4973,7 @@
         <v>18.868047778187801</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>86</v>
       </c>
@@ -4845,7 +4981,7 @@
         <v>11.878765107608899</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>87</v>
       </c>
@@ -4853,7 +4989,7 @@
         <v>20.062605518694099</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>88</v>
       </c>
@@ -4861,7 +4997,7 @@
         <v>25.984085382555801</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>89</v>
       </c>
@@ -4869,7 +5005,7 @@
         <v>39.453176195129103</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>90</v>
       </c>
@@ -4877,7 +5013,7 @@
         <v>52.732223583003801</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>91</v>
       </c>
@@ -4885,7 +5021,7 @@
         <v>57.397603152430698</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>92</v>
       </c>
@@ -4893,7 +5029,7 @@
         <v>74.787769046542493</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>93</v>
       </c>
@@ -4901,7 +5037,7 @@
         <v>72.766602035051903</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>94</v>
       </c>
@@ -4909,7 +5045,7 @@
         <v>79.772063559730995</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>95</v>
       </c>
@@ -4917,7 +5053,7 @@
         <v>96.033097691219993</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>96</v>
       </c>
@@ -4925,7 +5061,7 @@
         <v>84.913344897326695</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>97</v>
       </c>
@@ -4933,7 +5069,7 @@
         <v>90.488145899594002</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>98</v>
       </c>
@@ -4941,7 +5077,7 @@
         <v>82.335766883312999</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>99</v>
       </c>
@@ -4949,7 +5085,7 @@
         <v>79.763996460187599</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>100</v>
       </c>
@@ -4957,7 +5093,7 @@
         <v>77.745447604024307</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0</v>
       </c>
@@ -4965,7 +5101,7 @@
         <v>97.932942167209802</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1</v>
       </c>
@@ -4973,7 +5109,7 @@
         <v>86.980416380353802</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2</v>
       </c>
@@ -4981,7 +5117,7 @@
         <v>73.206811198823502</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>3</v>
       </c>
@@ -4989,7 +5125,7 @@
         <v>90.755551565562598</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>4</v>
       </c>
@@ -4997,7 +5133,7 @@
         <v>73.307526755610994</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>5</v>
       </c>
@@ -5005,7 +5141,7 @@
         <v>63.020637981125297</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>6</v>
       </c>
@@ -5013,7 +5149,7 @@
         <v>49.884855467692397</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>7</v>
       </c>
@@ -5021,7 +5157,7 @@
         <v>42.143533114764899</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>8</v>
       </c>
@@ -5029,7 +5165,7 @@
         <v>29.122551338056901</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>9</v>
       </c>
@@ -5037,7 +5173,7 @@
         <v>23.768180568866399</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>10</v>
       </c>
@@ -5045,7 +5181,7 @@
         <v>13.3176974222797</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>11</v>
       </c>
@@ -5053,7 +5189,7 @@
         <v>4.4891758604830798</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>12</v>
       </c>
@@ -5061,7 +5197,7 @@
         <v>14.9393072435532</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>13</v>
       </c>
@@ -5069,7 +5205,7 @@
         <v>18.988823013437599</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>14</v>
       </c>
@@ -5077,7 +5213,7 @@
         <v>13.871588970175701</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>15</v>
       </c>
@@ -5085,7 +5221,7 @@
         <v>15.534520454135199</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>16</v>
       </c>
@@ -5093,7 +5229,7 @@
         <v>33.322499933062403</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>17</v>
       </c>
@@ -5101,7 +5237,7 @@
         <v>39.555520485791803</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>18</v>
       </c>
@@ -5109,7 +5245,7 @@
         <v>41.478348436583403</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>19</v>
       </c>
@@ -5117,7 +5253,7 @@
         <v>60.510615685209601</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>20</v>
       </c>
@@ -5125,7 +5261,7 @@
         <v>66.987325186443798</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>21</v>
       </c>
@@ -5133,7 +5269,7 @@
         <v>76.698334567202195</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>22</v>
       </c>
@@ -5141,7 +5277,7 @@
         <v>78.946086039517297</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>23</v>
       </c>
@@ -5149,7 +5285,7 @@
         <v>97.700099613789405</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>24</v>
       </c>
@@ -5157,7 +5293,7 @@
         <v>88.343876193600394</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>25</v>
       </c>
@@ -5165,7 +5301,7 @@
         <v>80.557058026583306</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>26</v>
       </c>
@@ -5173,7 +5309,7 @@
         <v>85.522194256562699</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>27</v>
       </c>
@@ -5181,7 +5317,7 @@
         <v>79.446532729052194</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>28</v>
       </c>
@@ -5189,7 +5325,7 @@
         <v>64.875968505524995</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>29</v>
       </c>
@@ -5197,7 +5333,7 @@
         <v>45.6832037662519</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>30</v>
       </c>
@@ -5205,7 +5341,7 @@
         <v>46.556858299415197</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>31</v>
       </c>
@@ -5213,7 +5349,7 @@
         <v>42.259695256529199</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>32</v>
       </c>
@@ -5221,7 +5357,7 @@
         <v>29.479416121536602</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>33</v>
       </c>
@@ -5229,7 +5365,7 @@
         <v>21.038208599701999</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>34</v>
       </c>
@@ -5237,7 +5373,7 @@
         <v>18.027478060695099</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>35</v>
       </c>
@@ -5245,7 +5381,7 @@
         <v>5.35893559866307</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>36</v>
       </c>
@@ -5253,7 +5389,7 @@
         <v>15.484928373850099</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>37</v>
       </c>
@@ -5261,7 +5397,7 @@
         <v>11.414155406987501</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>38</v>
       </c>
@@ -5269,7 +5405,7 @@
         <v>19.0490075432342</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>39</v>
       </c>
@@ -5277,7 +5413,7 @@
         <v>27.108423473438201</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>40</v>
       </c>
@@ -5285,7 +5421,7 @@
         <v>31.3960194315442</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>41</v>
       </c>
@@ -5293,7 +5429,7 @@
         <v>35.571840209930798</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>42</v>
       </c>
@@ -5301,7 +5437,7 @@
         <v>56.151847289523197</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>43</v>
       </c>
@@ -5309,7 +5445,7 @@
         <v>50.684843346560498</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>44</v>
       </c>
@@ -5317,7 +5453,7 @@
         <v>67.581037247757394</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>45</v>
       </c>
@@ -5325,7 +5461,7 @@
         <v>77.260099350464401</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>46</v>
       </c>
@@ -5333,7 +5469,7 @@
         <v>83.993496586826296</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>47</v>
       </c>
@@ -5341,7 +5477,7 @@
         <v>93.835247557116205</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>48</v>
       </c>
@@ -5349,7 +5485,7 @@
         <v>90.679254978487293</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>49</v>
       </c>
@@ -5357,7 +5493,7 @@
         <v>90.569238370282307</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>50</v>
       </c>
@@ -5365,7 +5501,7 @@
         <v>84.090390593427699</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>51</v>
       </c>
@@ -5373,7 +5509,7 @@
         <v>76.755091566609394</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>52</v>
       </c>
@@ -5381,7 +5517,7 @@
         <v>73.115303019987707</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>53</v>
       </c>
@@ -5389,7 +5525,7 @@
         <v>65.672519959124401</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>54</v>
       </c>
@@ -5397,7 +5533,7 @@
         <v>37.551205047089702</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>55</v>
       </c>
@@ -5405,7 +5541,7 @@
         <v>42.085266485127697</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>56</v>
       </c>
@@ -5413,7 +5549,7 @@
         <v>31.4857253104087</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>57</v>
       </c>
@@ -5421,7 +5557,7 @@
         <v>19.267818669286701</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>58</v>
       </c>
@@ -5429,7 +5565,7 @@
         <v>19.883687895589301</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>59</v>
       </c>
@@ -5437,7 +5573,7 @@
         <v>9.2969537429340807</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>60</v>
       </c>
@@ -5445,7 +5581,7 @@
         <v>8.58124431438657</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>61</v>
       </c>
@@ -5453,7 +5589,7 @@
         <v>15.7795959488466</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>62</v>
       </c>
@@ -5461,7 +5597,7 @@
         <v>24.208552555248101</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>63</v>
       </c>
@@ -5469,7 +5605,7 @@
         <v>23.425725386141401</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>64</v>
       </c>
@@ -5477,7 +5613,7 @@
         <v>28.335478426076499</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>65</v>
       </c>
@@ -5485,7 +5621,7 @@
         <v>34.2063565187579</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>66</v>
       </c>
@@ -5493,7 +5629,7 @@
         <v>48.8744358416305</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>67</v>
       </c>
@@ -5501,7 +5637,7 @@
         <v>56.171985414771903</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>68</v>
       </c>
@@ -5509,7 +5645,7 @@
         <v>69.176021429347202</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>69</v>
       </c>
@@ -5517,7 +5653,7 @@
         <v>80.644962610885202</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>70</v>
       </c>
@@ -5525,7 +5661,7 @@
         <v>80.659162963246601</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>71</v>
       </c>
@@ -5533,7 +5669,7 @@
         <v>102.02640248105401</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>72</v>
       </c>
@@ -5541,7 +5677,7 @@
         <v>90.775885822818097</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>73</v>
       </c>
@@ -5549,7 +5685,7 @@
         <v>94.132318704437594</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>74</v>
       </c>
@@ -5557,7 +5693,7 @@
         <v>72.894684024581807</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>75</v>
       </c>
@@ -5565,7 +5701,7 @@
         <v>81.560528916831899</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>76</v>
       </c>
@@ -5573,7 +5709,7 @@
         <v>62.888314941563898</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>77</v>
       </c>
@@ -5581,7 +5717,7 @@
         <v>64.353737156190803</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>78</v>
       </c>
@@ -5589,7 +5725,7 @@
         <v>51.364766252862402</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>79</v>
       </c>
@@ -5597,7 +5733,7 @@
         <v>36.998587301731902</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>80</v>
       </c>
@@ -5605,7 +5741,7 @@
         <v>36.067939818531201</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>81</v>
       </c>
@@ -5613,7 +5749,7 @@
         <v>17.753717006567101</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>82</v>
       </c>
@@ -5621,7 +5757,7 @@
         <v>12.1316101377311</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>83</v>
       </c>
@@ -5629,7 +5765,7 @@
         <v>6.1905880377548996</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>84</v>
       </c>
@@ -5637,7 +5773,7 @@
         <v>6.6647862422395097</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>85</v>
       </c>
@@ -5645,7 +5781,7 @@
         <v>16.2710359852042</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>86</v>
       </c>
@@ -5653,7 +5789,7 @@
         <v>17.877685853357999</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>87</v>
       </c>
@@ -5661,7 +5797,7 @@
         <v>27.239460376722</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>88</v>
       </c>
@@ -5669,7 +5805,7 @@
         <v>28.6640395491745</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>89</v>
       </c>
@@ -5677,7 +5813,7 @@
         <v>42.220547461185099</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>90</v>
       </c>
@@ -5685,7 +5821,7 @@
         <v>51.942989308004599</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>91</v>
       </c>
@@ -5693,7 +5829,7 @@
         <v>53.925057306116102</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>92</v>
       </c>
@@ -5701,7 +5837,7 @@
         <v>79.528049644011404</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>93</v>
       </c>
@@ -5709,7 +5845,7 @@
         <v>79.479254271242596</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>94</v>
       </c>
@@ -5717,7 +5853,7 @@
         <v>88.839980619559</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>95</v>
       </c>
@@ -5725,7 +5861,7 @@
         <v>93.6029925415435</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>96</v>
       </c>
@@ -5733,7 +5869,7 @@
         <v>89.739753716638603</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>97</v>
       </c>
@@ -5741,7 +5877,7 @@
         <v>86.899195239171604</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>98</v>
       </c>
@@ -5749,7 +5885,7 @@
         <v>88.709515650985196</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>99</v>
       </c>
@@ -5757,7 +5893,7 @@
         <v>72.480496516626403</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>100</v>
       </c>
@@ -5765,7 +5901,7 @@
         <v>79.157768104124798</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>0</v>
       </c>
@@ -5773,7 +5909,7 @@
         <v>88.081839468558201</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1</v>
       </c>
@@ -5781,7 +5917,7 @@
         <v>96.905681895142607</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2</v>
       </c>
@@ -5789,7 +5925,7 @@
         <v>92.194052345038997</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>3</v>
       </c>
@@ -5797,7 +5933,7 @@
         <v>78.682072284321293</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>4</v>
       </c>
@@ -5805,7 +5941,7 @@
         <v>72.808300496040999</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>5</v>
       </c>
@@ -5813,7 +5949,7 @@
         <v>55.191258903634498</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>6</v>
       </c>
@@ -5821,7 +5957,7 @@
         <v>51.566885598534199</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>7</v>
       </c>
@@ -5829,7 +5965,7 @@
         <v>44.811053291781199</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>8</v>
       </c>
@@ -5837,7 +5973,7 @@
         <v>30.439822931391198</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>9</v>
       </c>
@@ -5845,7 +5981,7 @@
         <v>19.394022806822001</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>10</v>
       </c>
@@ -5853,7 +5989,7 @@
         <v>12.040021879915701</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>11</v>
       </c>
@@ -5861,7 +5997,7 @@
         <v>11.160603135107801</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>12</v>
       </c>
@@ -5869,7 +6005,7 @@
         <v>15.3459232096628</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>13</v>
       </c>
@@ -5877,7 +6013,7 @@
         <v>8.9702232344334707</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>14</v>
       </c>
@@ -5885,7 +6021,7 @@
         <v>14.810241259666499</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>15</v>
       </c>
@@ -5893,7 +6029,7 @@
         <v>15.330269213069499</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>16</v>
       </c>
@@ -5901,7 +6037,7 @@
         <v>32.582857584747501</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>17</v>
       </c>
@@ -5909,7 +6045,7 @@
         <v>46.318573770832401</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>18</v>
       </c>
@@ -5917,7 +6053,7 @@
         <v>57.629645517721499</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>19</v>
       </c>
@@ -5925,7 +6061,7 @@
         <v>64.573470041294996</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>20</v>
       </c>
@@ -5933,7 +6069,7 @@
         <v>60.789882905071501</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>21</v>
       </c>
@@ -5941,7 +6077,7 @@
         <v>80.813324987122996</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>22</v>
       </c>
@@ -5949,7 +6085,7 @@
         <v>87.009625869202594</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>23</v>
       </c>
@@ -5957,7 +6093,7 @@
         <v>86.917388645052597</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>24</v>
       </c>
@@ -5965,7 +6101,7 @@
         <v>90.851983730296396</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>25</v>
       </c>
@@ -5973,7 +6109,7 @@
         <v>84.264445317214197</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>26</v>
       </c>
@@ -5981,7 +6117,7 @@
         <v>87.932380932943602</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>27</v>
       </c>
@@ -5989,7 +6125,7 @@
         <v>76.495149423759301</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>28</v>
       </c>
@@ -5997,7 +6133,7 @@
         <v>61.959691081851602</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>29</v>
       </c>
@@ -6005,7 +6141,7 @@
         <v>58.2905533437972</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>30</v>
       </c>
@@ -6013,7 +6149,7 @@
         <v>56.581441457590003</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>31</v>
       </c>
@@ -6021,7 +6157,7 @@
         <v>37.735750253271</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>32</v>
       </c>
@@ -6029,7 +6165,7 @@
         <v>33.441782712795202</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>33</v>
       </c>
@@ -6037,7 +6173,7 @@
         <v>26.262030520717101</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>34</v>
       </c>
@@ -6045,7 +6181,7 @@
         <v>15.2453679392264</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>35</v>
       </c>
@@ -6053,7 +6189,7 @@
         <v>9.5296172638112004</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>36</v>
       </c>
@@ -6061,7 +6197,7 @@
         <v>7.3525656068113898</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>37</v>
       </c>
@@ -6069,7 +6205,7 @@
         <v>15.1388216762523</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>38</v>
       </c>
@@ -6077,7 +6213,7 @@
         <v>10.1951671288297</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>39</v>
       </c>
@@ -6085,7 +6221,7 @@
         <v>23.168939017432901</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>40</v>
       </c>
@@ -6093,7 +6229,7 @@
         <v>28.831120524146101</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>41</v>
       </c>
@@ -6101,7 +6237,7 @@
         <v>28.640931491821199</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>42</v>
       </c>
@@ -6109,7 +6245,7 @@
         <v>43.292772229320597</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>43</v>
       </c>
@@ -6117,7 +6253,7 @@
         <v>65.265764714450796</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>44</v>
       </c>
@@ -6125,7 +6261,7 @@
         <v>69.348596195089996</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>45</v>
       </c>
@@ -6133,7 +6269,7 @@
         <v>82.554868976917604</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>46</v>
       </c>
@@ -6141,7 +6277,7 @@
         <v>94.261474087194401</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>47</v>
       </c>
@@ -6149,7 +6285,7 @@
         <v>96.102333918741294</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>48</v>
       </c>
@@ -6157,7 +6293,7 @@
         <v>93.384487974538402</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>49</v>
       </c>
@@ -6165,7 +6301,7 @@
         <v>90.433213785996898</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>50</v>
       </c>
@@ -6173,7 +6309,7 @@
         <v>83.474672526205595</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>51</v>
       </c>
@@ -6181,7 +6317,7 @@
         <v>85.882872249228001</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>52</v>
       </c>
@@ -6189,7 +6325,7 @@
         <v>72.618719533481794</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>53</v>
       </c>
@@ -6197,7 +6333,7 @@
         <v>54.073493468688604</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>54</v>
       </c>
@@ -6205,7 +6341,7 @@
         <v>48.788473447097502</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>55</v>
       </c>
@@ -6213,7 +6349,7 @@
         <v>29.6270196075493</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>56</v>
       </c>
@@ -6221,7 +6357,7 @@
         <v>28.635809045962301</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>57</v>
       </c>
@@ -6229,7 +6365,7 @@
         <v>8.4325189273371493</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>58</v>
       </c>
@@ -6237,7 +6373,7 @@
         <v>21.698634693695499</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>59</v>
       </c>
@@ -6245,7 +6381,7 @@
         <v>8.0654246463652992</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>60</v>
       </c>
@@ -6253,7 +6389,7 @@
         <v>7.8530034299134899</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>61</v>
       </c>
@@ -6261,7 +6397,7 @@
         <v>10.645955396937801</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>62</v>
       </c>
@@ -6269,7 +6405,7 @@
         <v>18.671506929590699</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>63</v>
       </c>
@@ -6277,7 +6413,7 @@
         <v>25.467151767568701</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>64</v>
       </c>
@@ -6285,7 +6421,7 @@
         <v>33.286158337373003</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>65</v>
       </c>
@@ -6293,7 +6429,7 @@
         <v>37.289209973425201</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>66</v>
       </c>
@@ -6301,7 +6437,7 @@
         <v>43.713144454633799</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>67</v>
       </c>
@@ -6309,7 +6445,7 @@
         <v>58.927520825632499</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>68</v>
       </c>
@@ -6317,7 +6453,7 @@
         <v>71.8602550071938</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>69</v>
       </c>
@@ -6325,7 +6461,7 @@
         <v>74.557661161917196</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>70</v>
       </c>
@@ -6333,7 +6469,7 @@
         <v>84.574243750973594</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>71</v>
       </c>
@@ -6341,7 +6477,7 @@
         <v>82.942256444930393</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>72</v>
       </c>
@@ -6349,7 +6485,7 @@
         <v>89.954282373414699</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>73</v>
       </c>
@@ -6357,7 +6493,7 @@
         <v>89.125559375149905</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>74</v>
       </c>
@@ -6365,7 +6501,7 @@
         <v>83.610925781477306</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>75</v>
       </c>
@@ -6373,7 +6509,7 @@
         <v>77.035968347174304</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>76</v>
       </c>
@@ -6381,7 +6517,7 @@
         <v>78.287300757746294</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>77</v>
       </c>
@@ -6389,7 +6525,7 @@
         <v>63.5676513302367</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>78</v>
       </c>
@@ -6397,7 +6533,7 @@
         <v>54.931270879255798</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>79</v>
       </c>
@@ -6405,7 +6541,7 @@
         <v>34.420195433931603</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>80</v>
       </c>
@@ -6413,7 +6549,7 @@
         <v>30.268355859784698</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>81</v>
       </c>
@@ -6421,7 +6557,7 @@
         <v>27.034001288288</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>82</v>
       </c>
@@ -6429,7 +6565,7 @@
         <v>14.752074536301301</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>83</v>
       </c>
@@ -6437,7 +6573,7 @@
         <v>0.549145701708733</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>84</v>
       </c>
@@ -6445,7 +6581,7 @@
         <v>11.7299080865038</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>85</v>
       </c>
@@ -6453,7 +6589,7 @@
         <v>2.0203339904111699</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>86</v>
       </c>
@@ -6461,7 +6597,7 @@
         <v>11.6533243399311</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>87</v>
       </c>
@@ -6469,7 +6605,7 @@
         <v>28.833685894834801</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>88</v>
       </c>
@@ -6477,7 +6613,7 @@
         <v>33.692817115956302</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>89</v>
       </c>
@@ -6485,7 +6621,7 @@
         <v>45.797040779988599</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>90</v>
       </c>
@@ -6493,7 +6629,7 @@
         <v>52.255188993140301</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>91</v>
       </c>
@@ -6501,7 +6637,7 @@
         <v>60.505550205614497</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>92</v>
       </c>
@@ -6509,7 +6645,7 @@
         <v>66.014339340997694</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>93</v>
       </c>
@@ -6517,7 +6653,7 @@
         <v>86.771584735170194</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>94</v>
       </c>
@@ -6525,7 +6661,7 @@
         <v>85.237038614379102</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>95</v>
       </c>
@@ -6533,7 +6669,7 @@
         <v>85.251667153659199</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>96</v>
       </c>
@@ -6541,7 +6677,7 @@
         <v>94.318697722435601</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>97</v>
       </c>
@@ -6549,7 +6685,7 @@
         <v>93.800477129396</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>98</v>
       </c>
@@ -6557,7 +6693,7 @@
         <v>93.719421009850507</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>99</v>
       </c>
@@ -6565,7 +6701,7 @@
         <v>74.702000743907504</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>100</v>
       </c>
@@ -6573,7 +6709,7 @@
         <v>67.346742069388398</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0</v>
       </c>
@@ -6581,7 +6717,7 @@
         <v>87.918889842349003</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>1</v>
       </c>
@@ -6589,7 +6725,7 @@
         <v>86.756668269665695</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2</v>
       </c>
@@ -6597,7 +6733,7 @@
         <v>82.799834146774003</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>3</v>
       </c>
@@ -6605,7 +6741,7 @@
         <v>76.788856352887294</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>4</v>
       </c>
@@ -6613,7 +6749,7 @@
         <v>77.181297972782801</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>5</v>
       </c>
@@ -6621,7 +6757,7 @@
         <v>56.826309841741597</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>6</v>
       </c>
@@ -6629,7 +6765,7 @@
         <v>48.011015553815199</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>7</v>
       </c>
@@ -6637,7 +6773,7 @@
         <v>42.855673260857898</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>8</v>
       </c>
@@ -6645,7 +6781,7 @@
         <v>35.568292729580897</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>9</v>
       </c>
@@ -6653,7 +6789,7 @@
         <v>17.804153337474201</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>10</v>
       </c>
@@ -6661,7 +6797,7 @@
         <v>12.7785000614765</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>11</v>
       </c>
@@ -6669,7 +6805,7 @@
         <v>13.958318200710499</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>12</v>
       </c>
@@ -6677,7 +6813,7 @@
         <v>15.088887038968601</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>13</v>
       </c>
@@ -6685,7 +6821,7 @@
         <v>10.1342749455</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>14</v>
       </c>
@@ -6693,7 +6829,7 @@
         <v>8.2653245793606693</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>15</v>
       </c>
@@ -6701,7 +6837,7 @@
         <v>30.3465743926781</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>16</v>
       </c>
@@ -6709,7 +6845,7 @@
         <v>37.286641266231399</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>17</v>
       </c>
@@ -6717,7 +6853,7 @@
         <v>36.227210441012197</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>18</v>
       </c>
@@ -6725,7 +6861,7 @@
         <v>49.819102602429702</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>19</v>
       </c>
@@ -6733,7 +6869,7 @@
         <v>51.702612709978602</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>20</v>
       </c>
@@ -6741,7 +6877,7 @@
         <v>72.987441715180097</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>21</v>
       </c>
@@ -6749,7 +6885,7 @@
         <v>86.464911457513097</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>22</v>
       </c>
@@ -6757,7 +6893,7 @@
         <v>76.542544617172993</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>23</v>
       </c>
@@ -6765,7 +6901,7 @@
         <v>84.786547508193394</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>24</v>
       </c>
@@ -6773,7 +6909,7 @@
         <v>86.793651706803701</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>25</v>
       </c>
@@ -6781,7 +6917,7 @@
         <v>85.178968119992902</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>26</v>
       </c>
@@ -6789,7 +6925,7 @@
         <v>74.369799084775593</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>27</v>
       </c>
@@ -6797,7 +6933,7 @@
         <v>80.6354722932643</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>28</v>
       </c>
@@ -6805,7 +6941,7 @@
         <v>62.1461113077427</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>29</v>
       </c>
@@ -6813,7 +6949,7 @@
         <v>60.0028189282583</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>30</v>
       </c>
@@ -6821,7 +6957,7 @@
         <v>52.724190417367197</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>31</v>
       </c>
@@ -6829,7 +6965,7 @@
         <v>38.416179969503602</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>32</v>
       </c>
@@ -6837,7 +6973,7 @@
         <v>34.238074464117297</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>33</v>
       </c>
@@ -6845,7 +6981,7 @@
         <v>21.400526965137399</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>34</v>
       </c>
@@ -6853,7 +6989,7 @@
         <v>11.9850721646662</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>35</v>
       </c>
@@ -6861,7 +6997,7 @@
         <v>14.523025866733599</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>36</v>
       </c>
@@ -6869,7 +7005,7 @@
         <v>7.8318794523309698</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>37</v>
       </c>
@@ -6877,7 +7013,7 @@
         <v>20.3039314732709</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>38</v>
       </c>
@@ -6885,7 +7021,7 @@
         <v>15.4211556504287</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>39</v>
       </c>
@@ -6893,7 +7029,7 @@
         <v>26.2019597677535</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>40</v>
       </c>
@@ -6901,7 +7037,7 @@
         <v>31.304431873187799</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>41</v>
       </c>
@@ -6909,7 +7045,7 @@
         <v>24.925135279658502</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>42</v>
       </c>
@@ -6917,7 +7053,7 @@
         <v>43.506464853041699</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>43</v>
       </c>
@@ -6925,7 +7061,7 @@
         <v>58.565156769763803</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>44</v>
       </c>
@@ -6933,7 +7069,7 @@
         <v>71.489009266493795</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>45</v>
       </c>
@@ -6941,7 +7077,7 @@
         <v>66.824837294454497</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>46</v>
       </c>
@@ -6949,7 +7085,7 @@
         <v>89.632584937554896</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>47</v>
       </c>
@@ -6957,7 +7093,7 @@
         <v>85.710799343923398</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>48</v>
       </c>
@@ -6965,7 +7101,7 @@
         <v>86.233759116158893</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>49</v>
       </c>
@@ -6973,7 +7109,7 @@
         <v>80.755342390441896</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>50</v>
       </c>
@@ -6981,7 +7117,7 @@
         <v>77.169195968486903</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>51</v>
       </c>
@@ -6989,7 +7125,7 @@
         <v>78.275072454978101</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>52</v>
       </c>
@@ -6997,7 +7133,7 @@
         <v>72.184396020259001</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>53</v>
       </c>
@@ -7005,7 +7141,7 @@
         <v>49.451963374123899</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>54</v>
       </c>
@@ -7013,7 +7149,7 @@
         <v>44.544876224302399</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>55</v>
       </c>
@@ -7021,7 +7157,7 @@
         <v>41.900427320161498</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>56</v>
       </c>
@@ -7029,7 +7165,7 @@
         <v>27.3469178532659</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>57</v>
       </c>
@@ -7037,7 +7173,7 @@
         <v>32.220999786153399</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>58</v>
       </c>
@@ -7045,7 +7181,7 @@
         <v>21.357357221445699</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>59</v>
       </c>
@@ -7053,7 +7189,7 @@
         <v>14.220629821874001</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>60</v>
       </c>
@@ -7061,7 +7197,7 @@
         <v>10.027319871075401</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>61</v>
       </c>
@@ -7069,7 +7205,7 @@
         <v>12.8893509687239</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>62</v>
       </c>
@@ -7077,7 +7213,7 @@
         <v>12.080885433306999</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>63</v>
       </c>
@@ -7085,7 +7221,7 @@
         <v>25.2155366462415</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>64</v>
       </c>
@@ -7093,7 +7229,7 @@
         <v>37.847468275443198</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>65</v>
       </c>
@@ -7101,7 +7237,7 @@
         <v>45.569072543472203</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>66</v>
       </c>
@@ -7109,7 +7245,7 @@
         <v>46.463379452705098</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>67</v>
       </c>
@@ -7117,7 +7253,7 @@
         <v>52.776747801204102</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>68</v>
       </c>
@@ -7125,7 +7261,7 @@
         <v>69.922405847499903</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>69</v>
       </c>
@@ -7133,7 +7269,7 @@
         <v>80.877513624362194</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>70</v>
       </c>
@@ -7141,7 +7277,7 @@
         <v>91.673418322408907</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>71</v>
       </c>
@@ -7149,7 +7285,7 @@
         <v>82.187520652911601</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>72</v>
       </c>
@@ -7157,7 +7293,7 @@
         <v>91.8177504075299</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>73</v>
       </c>
@@ -7165,7 +7301,7 @@
         <v>89.648781542605406</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>74</v>
       </c>
@@ -7173,7 +7309,7 @@
         <v>90.310080230077602</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>75</v>
       </c>
@@ -7181,7 +7317,7 @@
         <v>77.715973270206803</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>76</v>
       </c>
@@ -7189,7 +7325,7 @@
         <v>67.683046471300401</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>77</v>
       </c>
@@ -7197,7 +7333,7 @@
         <v>54.020648087553198</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>78</v>
       </c>
@@ -7205,7 +7341,7 @@
         <v>46.787013057634503</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>79</v>
       </c>
@@ -7213,7 +7349,7 @@
         <v>37.225611335189399</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>80</v>
       </c>
@@ -7221,7 +7357,7 @@
         <v>41.199418296590402</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>81</v>
       </c>
@@ -7229,7 +7365,7 @@
         <v>33.492532231301503</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>82</v>
       </c>
@@ -7237,7 +7373,7 @@
         <v>14.201165261512401</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>83</v>
       </c>
@@ -7245,7 +7381,7 @@
         <v>5.9776117475725501</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>84</v>
       </c>
@@ -7253,7 +7389,7 @@
         <v>0.14100460563310999</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>85</v>
       </c>
@@ -7261,7 +7397,7 @@
         <v>14.118469385529</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>86</v>
       </c>
@@ -7269,7 +7405,7 @@
         <v>10.256307186957899</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>87</v>
       </c>
@@ -7277,7 +7413,7 @@
         <v>33.636960916058598</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>88</v>
       </c>
@@ -7285,7 +7421,7 @@
         <v>26.1865450061531</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>89</v>
       </c>
@@ -7293,7 +7429,7 @@
         <v>40.894228151040402</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>90</v>
       </c>
@@ -7301,7 +7437,7 @@
         <v>69.773548089125399</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>91</v>
       </c>
@@ -7309,7 +7445,7 @@
         <v>55.511794028312501</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>92</v>
       </c>
@@ -7317,7 +7453,7 @@
         <v>72.173736328741398</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>93</v>
       </c>
@@ -7325,7 +7461,7 @@
         <v>73.272543605448405</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>94</v>
       </c>
@@ -7333,7 +7469,7 @@
         <v>86.750253867879493</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>95</v>
       </c>
@@ -7341,7 +7477,7 @@
         <v>84.460986481688394</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>96</v>
       </c>
@@ -7349,7 +7485,7 @@
         <v>90.379097837534601</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>97</v>
       </c>
@@ -7357,7 +7493,7 @@
         <v>86.943929127223399</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>98</v>
       </c>
@@ -7365,7 +7501,7 @@
         <v>78.324935936694303</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>99</v>
       </c>
@@ -7373,7 +7509,7 @@
         <v>77.773450704052394</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>100</v>
       </c>
